--- a/SRS ENTREGA/Descripcion de requerimientos.xlsx
+++ b/SRS ENTREGA/Descripcion de requerimientos.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="14070" windowHeight="5235"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="14070" windowHeight="5235" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="REQUERIMIENTOS" sheetId="1" r:id="rId1"/>
     <sheet name="GLOSARIO REQ." sheetId="2" r:id="rId2"/>
     <sheet name="LISTA DE CHEQUEO" sheetId="3" r:id="rId3"/>
+    <sheet name="PLANTILLA" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="265">
   <si>
     <t>REQUERIMIENTO</t>
   </si>
@@ -114,9 +116,6 @@
     <t>PROP. ESPECIALES (HIPPIE)</t>
   </si>
   <si>
-    <t>Al caer en la propiedad del Hippie, el sistema debe permitir que el participante cancele el valor de la manilla del Hippie</t>
-  </si>
-  <si>
     <t>PROP. ESPECIALES (CAI)</t>
   </si>
   <si>
@@ -348,30 +347,9 @@
     <t>ESPECIFICACIONES DE SOFTWARE</t>
   </si>
   <si>
-    <t>La aplicación debe correr en el sistema operativo Windows 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La tarjeta gráfica de la maquina deberá ser NVIDIA </t>
-  </si>
-  <si>
-    <t>La tarjeta de video debera ser minimo de 256 MB</t>
-  </si>
-  <si>
-    <t>La aplicación será desarrollada en NetBeans 6.8</t>
-  </si>
-  <si>
-    <t>La interfaz será desarrollada en Flash 8.0</t>
-  </si>
-  <si>
-    <t>La persistencia se manejara con archivos planos</t>
-  </si>
-  <si>
     <t>DESEMPEÑO</t>
   </si>
   <si>
-    <t>Si la operación es visualización, el tiempo de respuesta no excedera los 3 segundos</t>
-  </si>
-  <si>
     <t>Si la operación es con calculos, el tiempo de respuesta no excedera los 5 segundos</t>
   </si>
   <si>
@@ -559,13 +537,289 @@
   </si>
   <si>
     <t>El sistema debe permitir cancelar el valor calculado del requerimiento # 48</t>
+  </si>
+  <si>
+    <t>Al caer en la propiedad del Hippie, el sistema debe permitir que el participante cancele el valor de la manilla del Hippie, el cual es $10.000</t>
+  </si>
+  <si>
+    <t>indica el id del requerimiento</t>
+  </si>
+  <si>
+    <t>Versión:</t>
+  </si>
+  <si>
+    <t>si se hacen cambios</t>
+  </si>
+  <si>
+    <t>funcional o no funcional</t>
+  </si>
+  <si>
+    <t>Encargado:</t>
+  </si>
+  <si>
+    <t>Quien especificara el requerimiento</t>
+  </si>
+  <si>
+    <t>Descripción:</t>
+  </si>
+  <si>
+    <t>¿qué hace?</t>
+  </si>
+  <si>
+    <t>Criterio de medición:</t>
+  </si>
+  <si>
+    <t>¿cuál será la métrica?</t>
+  </si>
+  <si>
+    <t>Excepciones:</t>
+  </si>
+  <si>
+    <t>que problemas podría presentar</t>
+  </si>
+  <si>
+    <t>Observación y/o justificación:</t>
+  </si>
+  <si>
+    <t>¿Porque es necesario?</t>
+  </si>
+  <si>
+    <t>Trazabilidad:</t>
+  </si>
+  <si>
+    <t>Casos de uso:</t>
+  </si>
+  <si>
+    <t>relación con q caso de uso</t>
+  </si>
+  <si>
+    <t>Requerimientos:</t>
+  </si>
+  <si>
+    <t>relación con otros requerimientos</t>
+  </si>
+  <si>
+    <t>Código:</t>
+  </si>
+  <si>
+    <t>todavía no</t>
+  </si>
+  <si>
+    <t>Capa:</t>
+  </si>
+  <si>
+    <t>Parte del juego</t>
+  </si>
+  <si>
+    <t>Riesgo:</t>
+  </si>
+  <si>
+    <t>riesgo de la implementación</t>
+  </si>
+  <si>
+    <t>Prioridad:</t>
+  </si>
+  <si>
+    <t>es implícito</t>
+  </si>
+  <si>
+    <t>Costo:</t>
+  </si>
+  <si>
+    <t>costo de la implementación</t>
+  </si>
+  <si>
+    <t>Estado:</t>
+  </si>
+  <si>
+    <t>Esfuerzo:</t>
+  </si>
+  <si>
+    <t>esfuerzo en tiempo de la implementación</t>
+  </si>
+  <si>
+    <t>Requerido:</t>
+  </si>
+  <si>
+    <t>¿Realmente se requiere?</t>
+  </si>
+  <si>
+    <t>La tarjeta gráfica de la maquina deberá ser minimo 256 MB</t>
+  </si>
+  <si>
+    <t>La aplicación debe correr  minimo en el sistema operativo Windows XP</t>
+  </si>
+  <si>
+    <t>CONVENCIONES</t>
+  </si>
+  <si>
+    <t>CORRECTO</t>
+  </si>
+  <si>
+    <t>INCORRECTO</t>
+  </si>
+  <si>
+    <t>CORREGIDO</t>
+  </si>
+  <si>
+    <t>NO ESPECIFICADO</t>
+  </si>
+  <si>
+    <t>La aplicación será desarrollada en el entorno de desarrollo NetBeans 6.8</t>
+  </si>
+  <si>
+    <t>El lenguaje para la programación será Java</t>
+  </si>
+  <si>
+    <t>La interfaz será desarrollada en Flash 8.0, aplicación para el manejo de graficas.</t>
+  </si>
+  <si>
+    <t>La persistencia se manejara con archivos planos de texto.</t>
+  </si>
+  <si>
+    <t>La persistencia se manejara con archivos planos binarios</t>
+  </si>
+  <si>
+    <t>Si la operación es visualización, al finalizar el turno de un jugador el tiempo de respuesta no excedera los 3 segundos</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>IDENTIFICACIÓN</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>descripción del requerimiento</t>
+  </si>
+  <si>
+    <t>CARACTERÍSTICAS</t>
+  </si>
+  <si>
+    <t>TIPO BASICO</t>
+  </si>
+  <si>
+    <t>Funcional o No funcional</t>
+  </si>
+  <si>
+    <t>TIPO DETALLADO</t>
+  </si>
+  <si>
+    <t>Nuestras categorias</t>
+  </si>
+  <si>
+    <t>VERSIÓN</t>
+  </si>
+  <si>
+    <t>REQ. NO FUNCIONAL ASOCIADO</t>
+  </si>
+  <si>
+    <t>Disponibilidad, flexibilidad, integridad, mantenibilidad, portabilidad, confiabilidad, safety, seguridad, soporte, usabilidad, mano de obra</t>
+  </si>
+  <si>
+    <t>TIPO DE PROCESO/PRODUCTO</t>
+  </si>
+  <si>
+    <t>producto, proceso, dato, servicio</t>
+  </si>
+  <si>
+    <t>TIPO CUALITATIVO O CUANTITATIVO</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>cualitativo - cuantitativo</t>
+  </si>
+  <si>
+    <t>en que versión va</t>
+  </si>
+  <si>
+    <t>Concepto, desarrollo, manufactura, integración/pruebas, despliegue, entrega, instalación, operación, soporte</t>
+  </si>
+  <si>
+    <t>PRIORIDAD E IMPORTANCIA</t>
+  </si>
+  <si>
+    <t>PRORITY</t>
+  </si>
+  <si>
+    <t>clave, obligatorio, opcional, deseable</t>
+  </si>
+  <si>
+    <t>IMPORTANCIA</t>
+  </si>
+  <si>
+    <t>Calificación 1 - 10</t>
+  </si>
+  <si>
+    <t>ORIGEN Y ENCARGADO</t>
+  </si>
+  <si>
+    <t>TIPO DE DERIVACIÓN</t>
+  </si>
+  <si>
+    <t>Allocation, descomposition</t>
+  </si>
+  <si>
+    <t>DOCUMENTO DE ORIGEN</t>
+  </si>
+  <si>
+    <t>Documento de casos de uso</t>
+  </si>
+  <si>
+    <t>ENCARGADO</t>
+  </si>
+  <si>
+    <t>Nombre del Stakeholder</t>
+  </si>
+  <si>
+    <t>APROBADO POR</t>
+  </si>
+  <si>
+    <t>CONTEXTO</t>
+  </si>
+  <si>
+    <t>REQUERIMIENTOS ASOCIADOS</t>
+  </si>
+  <si>
+    <t>ALCANCE</t>
+  </si>
+  <si>
+    <t>VERIFICACIÓN Y VALIDACIÓN</t>
+  </si>
+  <si>
+    <t>METODO DE V&amp;V</t>
+  </si>
+  <si>
+    <t>ESTADO DE V&amp;V</t>
+  </si>
+  <si>
+    <t>ETAPA DE V&amp;V</t>
+  </si>
+  <si>
+    <t>Análisis, Inspección, pruebas del sistema, pruebas de componentes</t>
+  </si>
+  <si>
+    <t>Fase del ciclo de vida</t>
+  </si>
+  <si>
+    <t>Pendiente, aprobado, rechazado, indeterminado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,8 +848,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,8 +901,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -675,11 +1004,323 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF974807"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFE46D0A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF974807"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFE46D0A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF974807"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF974807"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF974807"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF974807"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF974807"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFE46D0A"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFE46D0A"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF974807"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF974807"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFE46D0A"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF974807"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFE46D0A"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF974807"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFE46D0A"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF974807"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFE46D0A"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF974807"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFE46D0A"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFE46D0A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF974807"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF974807"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFE46D0A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFE46D0A"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF974807"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFE46D0A"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFE46D0A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFE46D0A"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF974807"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFE46D0A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF974807"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF974807"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF974807"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFE46D0A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF974807"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,9 +1341,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -719,6 +1357,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -727,23 +1383,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,20 +1410,229 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -786,11 +1642,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:S110" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:S110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:S122" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A2:S122"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="ID REQ/ CARACTE."/>
-    <tableColumn id="2" name="completo"/>
+    <tableColumn id="1" name="ID REQ/ CARACTE." dataDxfId="0"/>
+    <tableColumn id="2" name="completo" dataDxfId="1"/>
     <tableColumn id="3" name="Unico"/>
     <tableColumn id="4" name="Priorizado apropiadamente"/>
     <tableColumn id="5" name="consistente"/>
@@ -1098,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1111,2524 +1967,2405 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <f t="shared" ref="A5:A57" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="21" t="s">
+      <c r="B5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <f>A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="22" t="s">
+      <c r="B12" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="14" t="s">
+      <c r="B13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="33" customHeight="1">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="14" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="14" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="14" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <f>A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21" t="s">
+      <c r="B22" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A28" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A30" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" ht="39" customHeight="1">
+      <c r="A33" s="12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A34" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A36" s="12">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" customHeight="1">
+      <c r="A37" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="12">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="12">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A42" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A43" s="12">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="13">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="13">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A28" s="13">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="13">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="13">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="13">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="13">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" ht="39" customHeight="1">
-      <c r="A33" s="13">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A34" s="13">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="13">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A36" s="13">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="17" t="s">
+      <c r="B43" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A44" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="1:10" ht="30" customHeight="1">
+      <c r="A45" s="12">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A46" s="12">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="1:10" ht="30" customHeight="1">
-      <c r="A37" s="13">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="B46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A47" s="12">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="13">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="19" t="s">
+      <c r="B47" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A48" s="12">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="13">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="19" t="s">
+      <c r="B48" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A49" s="12">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="13">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="19" t="s">
+      <c r="B49" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A50" s="12">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="13">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="19" t="s">
+      <c r="B50" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" customHeight="1">
+      <c r="A51" s="12">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A42" s="13">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="B51" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A52" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A53" s="12">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A43" s="13">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="17" t="s">
+      <c r="B53" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" customHeight="1">
+      <c r="A54" s="12">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A44" s="13">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="17" t="s">
+      <c r="B54" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="12">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="1:10" ht="30" customHeight="1">
-      <c r="A45" s="13">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="B55" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" customHeight="1">
+      <c r="A56" s="12">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A46" s="13">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="17" t="s">
+      <c r="B56" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A57" s="12">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A47" s="13">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A48" s="13">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A49" s="13">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A50" s="13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="1:10" ht="30" customHeight="1">
-      <c r="A51" s="13">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A52" s="13">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A53" s="13">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="29" t="s">
+      <c r="B57" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
-    </row>
-    <row r="54" spans="1:10" ht="30" customHeight="1">
-      <c r="A54" s="13">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="13">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="1:10" ht="30" customHeight="1">
-      <c r="A56" s="13">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A57" s="13">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="17"/>
     </row>
     <row r="58" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <f>A57+1</f>
         <v>56</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="B58" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
     </row>
     <row r="59" spans="1:10" ht="21" customHeight="1">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <f>A58+1</f>
         <v>57</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A60" s="12">
+      <c r="A60" s="11">
         <f>A59+1</f>
         <v>58</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" s="23"/>
+      <c r="J60" s="24"/>
+    </row>
+    <row r="61" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A61" s="11">
+        <f t="shared" ref="A61:A126" si="1">A60+1</f>
+        <v>59</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="I60" s="30"/>
-      <c r="J60" s="31"/>
-    </row>
-    <row r="61" spans="1:10" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A61" s="12">
-        <f t="shared" ref="A61:A125" si="1">A60+1</f>
-        <v>59</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="I61" s="30"/>
-      <c r="J61" s="31"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="24"/>
     </row>
     <row r="62" spans="1:10" ht="30" customHeight="1">
-      <c r="A62" s="12">
+      <c r="A62" s="11">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="21" t="s">
+      <c r="B62" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" s="16"/>
+      <c r="J62" s="17"/>
     </row>
     <row r="63" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A63" s="12">
+      <c r="A63" s="11">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="12">
+      <c r="A64" s="11">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="B64" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" s="16"/>
+      <c r="J64" s="17"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="12">
+      <c r="A65" s="11">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="B65" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" s="16"/>
+      <c r="J65" s="17"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="12">
+      <c r="A66" s="11">
         <f>A65+1</f>
         <v>64</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I66" s="17"/>
-      <c r="J66" s="18"/>
+      <c r="B66" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="12">
+      <c r="A67" s="11">
         <f>A66+1</f>
         <v>65</v>
       </c>
-      <c r="B67" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I67" s="17"/>
-      <c r="J67" s="18"/>
+      <c r="B67" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67" s="14"/>
+      <c r="J67" s="15"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="12">
+      <c r="A68" s="11">
         <f>A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="18"/>
+      <c r="B68" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" s="14"/>
+      <c r="J68" s="15"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="12">
+      <c r="A69" s="11">
         <f>A68+1</f>
         <v>67</v>
       </c>
-      <c r="B69" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="18"/>
+      <c r="B69" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" s="14"/>
+      <c r="J69" s="15"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="12">
+      <c r="A70" s="11">
         <f>A69+1</f>
         <v>68</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="B70" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70" s="16"/>
+      <c r="J70" s="17"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="12">
+      <c r="A71" s="11">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="21" t="s">
+      <c r="B71" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71" s="16"/>
+      <c r="J71" s="17"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="12">
+      <c r="A72" s="11">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="B72" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72" s="16"/>
+      <c r="J72" s="17"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="12">
+      <c r="A73" s="11">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="B73" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="16"/>
+      <c r="J73" s="17"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="12">
+      <c r="A74" s="11">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="B74" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74" s="16"/>
+      <c r="J74" s="17"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="12">
+      <c r="A75" s="11">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="B75" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75" s="16"/>
+      <c r="J75" s="17"/>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1">
-      <c r="A76" s="12">
+      <c r="A76" s="11">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
+      <c r="B76" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A77" s="12">
+      <c r="A77" s="11">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B77" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I77" s="30"/>
-      <c r="J77" s="31"/>
+      <c r="B77" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77" s="23"/>
+      <c r="J77" s="24"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="12">
+      <c r="A78" s="11">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="B78" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78" s="16"/>
+      <c r="J78" s="17"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="12">
+      <c r="A79" s="11">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="B79" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I79" s="16"/>
+      <c r="J79" s="17"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="12">
+      <c r="A80" s="11">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="B80" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="17"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="12">
+      <c r="A81" s="11">
         <f>A80+1</f>
         <v>79</v>
       </c>
-      <c r="B81" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="B81" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81" s="16"/>
+      <c r="J81" s="17"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="12">
+      <c r="A82" s="11">
         <f>A81+1</f>
         <v>80</v>
       </c>
-      <c r="B82" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="B82" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I82" s="16"/>
+      <c r="J82" s="17"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="12">
+      <c r="A83" s="11">
         <f>A82+1</f>
         <v>81</v>
       </c>
-      <c r="B83" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="B83" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83" s="16"/>
+      <c r="J83" s="17"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="12">
+      <c r="A84" s="11">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B84" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="B84" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I84" s="16"/>
+      <c r="J84" s="17"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="12">
+      <c r="A85" s="11">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B85" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="B85" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I85" s="16"/>
+      <c r="J85" s="17"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="12">
+      <c r="A86" s="11">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B86" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="B86" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I86" s="16"/>
+      <c r="J86" s="17"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="12">
+      <c r="A87" s="11">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B87" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="B87" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I87" s="16"/>
+      <c r="J87" s="17"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="12">
+      <c r="A88" s="11">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B88" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="B88" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I88" s="16"/>
+      <c r="J88" s="17"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="12">
+      <c r="A89" s="11">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B89" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="B89" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89" s="16"/>
+      <c r="J89" s="17"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="12">
+      <c r="A90" s="11">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B90" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="B90" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I90" s="16"/>
+      <c r="J90" s="17"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="12">
+      <c r="A91" s="11">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B91" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="B91" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I91" s="16"/>
+      <c r="J91" s="17"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="12">
+      <c r="A92" s="11">
         <f>A91+1</f>
         <v>90</v>
       </c>
-      <c r="B92" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="B92" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92" s="16"/>
+      <c r="J92" s="17"/>
     </row>
     <row r="93" spans="1:10" ht="30" customHeight="1">
-      <c r="A93" s="12">
+      <c r="A93" s="11">
         <f>A92+1</f>
         <v>91</v>
       </c>
-      <c r="B93" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
+      <c r="B93" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="12">
+      <c r="A94" s="11">
         <f>A93+1</f>
         <v>92</v>
       </c>
-      <c r="B94" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="B94" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I94" s="16"/>
+      <c r="J94" s="17"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="12">
+      <c r="A95" s="11">
         <f>A94+1</f>
         <v>93</v>
       </c>
-      <c r="B95" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="B95" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I95" s="16"/>
+      <c r="J95" s="17"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="12">
+      <c r="A96" s="11">
         <f>A95+1</f>
         <v>94</v>
       </c>
-      <c r="B96" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="B96" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I96" s="16"/>
+      <c r="J96" s="17"/>
     </row>
     <row r="97" spans="1:10" ht="30" customHeight="1">
-      <c r="A97" s="12">
+      <c r="A97" s="11">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="14" t="s">
+      <c r="B97" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A98" s="12">
+      <c r="A98" s="11">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B98" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I98" s="17"/>
-      <c r="J98" s="18"/>
+      <c r="B98" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I98" s="14"/>
+      <c r="J98" s="15"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="12">
+      <c r="A99" s="11">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B99" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="B99" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I99" s="16"/>
+      <c r="J99" s="17"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="12">
+      <c r="A100" s="11">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B100" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="B100" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I100" s="16"/>
+      <c r="J100" s="17"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="12">
+      <c r="A101" s="11">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B101" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="B101" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I101" s="16"/>
+      <c r="J101" s="17"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="12">
-        <f t="shared" si="1"/>
+      <c r="A102" s="11">
+        <f>A101+1</f>
         <v>100</v>
       </c>
-      <c r="B102" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="B102" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I102" s="16"/>
+      <c r="J102" s="17"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="12">
+      <c r="A103" s="11">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B103" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="B103" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I103" s="16"/>
+      <c r="J103" s="17"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="12">
+      <c r="A104" s="11">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B104" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="B104" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I104" s="16"/>
+      <c r="J104" s="17"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="12">
+      <c r="A105" s="11">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B105" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="21" t="s">
+      <c r="B105" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I105" s="16"/>
+      <c r="J105" s="17"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="11">
+        <f>A105+1</f>
+        <v>104</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I106" s="16"/>
+      <c r="J106" s="17"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="11">
+        <f>A106+1</f>
+        <v>105</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I107" s="16"/>
+      <c r="J107" s="17"/>
+    </row>
+    <row r="108" spans="1:10" s="79" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A108" s="12">
+        <f>A107+1</f>
+        <v>106</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="12">
+      <c r="I108" s="16"/>
+      <c r="J108" s="17"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="11">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="12">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" s="12">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="1:10" ht="30" customHeight="1">
-      <c r="A109" s="12">
-        <f>A108+1</f>
-        <v>107</v>
-      </c>
-      <c r="B109" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="12">
+      <c r="I109" s="16"/>
+      <c r="J109" s="17"/>
+    </row>
+    <row r="110" spans="1:10" ht="30" customHeight="1">
+      <c r="A110" s="11">
         <f>A109+1</f>
         <v>108</v>
       </c>
-      <c r="B110" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="B110" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="12">
-        <f t="shared" si="1"/>
+      <c r="A111" s="11">
+        <f>A110+1</f>
         <v>109</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="B111" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I111" s="16"/>
+      <c r="J111" s="17"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="12">
+      <c r="A112" s="11">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B112" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="B112" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I112" s="16"/>
+      <c r="J112" s="17"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="12">
+      <c r="A113" s="11">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="B113" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I113" s="16"/>
+      <c r="J113" s="17"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="12">
+      <c r="A114" s="11">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="1:10" ht="30" customHeight="1">
-      <c r="A115" s="12">
-        <f>A114+1</f>
+      <c r="B114" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I114" s="16"/>
+      <c r="J114" s="17"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="11">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B115" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="12">
-        <f t="shared" si="1"/>
+      <c r="B115" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I115" s="16"/>
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" spans="1:10" ht="30" customHeight="1">
+      <c r="A116" s="11">
+        <f>A115+1</f>
         <v>114</v>
       </c>
-      <c r="B116" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="B116" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="12">
+      <c r="A117" s="11">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="21"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="B117" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I117" s="16"/>
+      <c r="J117" s="17"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="12">
+      <c r="A118" s="11">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="21"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="17"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="12">
+      <c r="A119" s="11">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="21"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="17"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="12">
+      <c r="A120" s="11">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="17"/>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="12">
+      <c r="A121" s="11">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="21"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="17"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="12">
+      <c r="A122" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="17"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="12">
+      <c r="A123" s="11">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="17"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="12">
+      <c r="A124" s="11">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="21"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="17"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="12">
+      <c r="A125" s="11">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="17"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="11">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="250">
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="H125:J125"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
+  <mergeCells count="252">
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="B39:G39"/>
@@ -3653,50 +4390,190 @@
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3719,82 +4596,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3861,10 +4738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO97"/>
+  <dimension ref="A1:AO122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3885,114 +4762,115 @@
     <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:41" ht="49.5" customHeight="1">
+      <c r="A1" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+    </row>
+    <row r="2" spans="1:41" ht="45" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="J2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="L2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-    </row>
-    <row r="2" spans="1:41">
-      <c r="A2" s="4">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="2">
         <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:41">
-      <c r="A3" s="4">
-        <f>A2+1</f>
-        <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4014,9 +4892,9 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="4">
-        <f t="shared" ref="A4:A55" si="0">A3+1</f>
-        <v>3</v>
+      <c r="A4" s="2">
+        <f>A3+1</f>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4038,9 +4916,9 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A56" si="0">A4+1</f>
+        <v>3</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4062,9 +4940,9 @@
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4086,9 +4964,9 @@
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4110,9 +4988,9 @@
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4134,9 +5012,9 @@
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4158,9 +5036,9 @@
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4182,9 +5060,9 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4206,9 +5084,9 @@
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4230,9 +5108,9 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4254,9 +5132,9 @@
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4278,9 +5156,9 @@
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4302,9 +5180,9 @@
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4326,9 +5204,9 @@
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4350,9 +5228,9 @@
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4374,9 +5252,9 @@
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4398,9 +5276,9 @@
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="4">
-        <f>A19+1</f>
-        <v>19</v>
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4422,9 +5300,9 @@
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <f>A20+1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4446,9 +5324,9 @@
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="A22" s="2">
+        <f>A21+1</f>
+        <v>20</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -4470,9 +5348,9 @@
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -4494,9 +5372,9 @@
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -4518,9 +5396,9 @@
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -4542,9 +5420,9 @@
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4566,9 +5444,9 @@
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4590,9 +5468,9 @@
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4614,9 +5492,9 @@
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4638,9 +5516,9 @@
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4662,9 +5540,9 @@
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -4686,9 +5564,9 @@
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -4710,9 +5588,9 @@
       <c r="S32" s="4"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -4734,9 +5612,9 @@
       <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -4758,9 +5636,9 @@
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4782,9 +5660,9 @@
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4806,9 +5684,9 @@
       <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4830,9 +5708,9 @@
       <c r="S37" s="4"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4854,9 +5732,9 @@
       <c r="S38" s="4"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4878,9 +5756,9 @@
       <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4902,9 +5780,9 @@
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4926,9 +5804,9 @@
       <c r="S41" s="4"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4950,9 +5828,9 @@
       <c r="S42" s="4"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4974,9 +5852,9 @@
       <c r="S43" s="4"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4998,9 +5876,9 @@
       <c r="S44" s="4"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -5022,9 +5900,9 @@
       <c r="S45" s="4"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -5046,9 +5924,9 @@
       <c r="S46" s="4"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="4">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -5070,9 +5948,9 @@
       <c r="S47" s="4"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="4">
-        <f t="shared" si="0"/>
-        <v>47</v>
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -5094,9 +5972,9 @@
       <c r="S48" s="4"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -5118,9 +5996,9 @@
       <c r="S49" s="4"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -5142,9 +6020,9 @@
       <c r="S50" s="4"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -5166,9 +6044,9 @@
       <c r="S51" s="4"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -5190,9 +6068,9 @@
       <c r="S52" s="4"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -5214,9 +6092,9 @@
       <c r="S53" s="4"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="4">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="A54" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -5238,9 +6116,9 @@
       <c r="S54" s="4"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
+      <c r="A55" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -5262,9 +6140,9 @@
       <c r="S55" s="4"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="4">
-        <f>A55+1</f>
-        <v>55</v>
+      <c r="A56" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5286,9 +6164,9 @@
       <c r="S56" s="4"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <f>A56+1</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5310,9 +6188,9 @@
       <c r="S57" s="4"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="8">
+      <c r="A58" s="2">
         <f>A57+1</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5334,9 +6212,9 @@
       <c r="S58" s="4"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="8">
-        <f t="shared" ref="A59:A97" si="1">A58+1</f>
-        <v>58</v>
+      <c r="A59" s="77">
+        <f>A58+1</f>
+        <v>57</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5358,9 +6236,9 @@
       <c r="S59" s="4"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="8">
-        <f t="shared" si="1"/>
-        <v>59</v>
+      <c r="A60" s="77">
+        <f t="shared" ref="A60:A98" si="1">A59+1</f>
+        <v>58</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5382,9 +6260,9 @@
       <c r="S60" s="4"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="8">
+      <c r="A61" s="77">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5406,9 +6284,9 @@
       <c r="S61" s="4"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="8">
+      <c r="A62" s="77">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -5430,9 +6308,9 @@
       <c r="S62" s="4"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="8">
+      <c r="A63" s="77">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -5454,9 +6332,9 @@
       <c r="S63" s="4"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="8">
+      <c r="A64" s="77">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -5478,9 +6356,9 @@
       <c r="S64" s="4"/>
     </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="8">
+      <c r="A65" s="77">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -5502,9 +6380,9 @@
       <c r="S65" s="4"/>
     </row>
     <row r="66" spans="1:19">
-      <c r="A66" s="8">
+      <c r="A66" s="77">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -5526,9 +6404,9 @@
       <c r="S66" s="4"/>
     </row>
     <row r="67" spans="1:19">
-      <c r="A67" s="8">
+      <c r="A67" s="77">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5550,9 +6428,9 @@
       <c r="S67" s="4"/>
     </row>
     <row r="68" spans="1:19">
-      <c r="A68" s="8">
+      <c r="A68" s="77">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5574,9 +6452,9 @@
       <c r="S68" s="4"/>
     </row>
     <row r="69" spans="1:19">
-      <c r="A69" s="8">
+      <c r="A69" s="77">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -5598,9 +6476,9 @@
       <c r="S69" s="4"/>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="8">
+      <c r="A70" s="77">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -5622,9 +6500,9 @@
       <c r="S70" s="4"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="8">
+      <c r="A71" s="77">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -5646,9 +6524,9 @@
       <c r="S71" s="4"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="8">
+      <c r="A72" s="77">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -5670,9 +6548,9 @@
       <c r="S72" s="4"/>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="8">
+      <c r="A73" s="77">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -5694,9 +6572,9 @@
       <c r="S73" s="4"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="8">
+      <c r="A74" s="77">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -5718,9 +6596,9 @@
       <c r="S74" s="4"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="8">
+      <c r="A75" s="77">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5742,9 +6620,9 @@
       <c r="S75" s="4"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="8">
+      <c r="A76" s="77">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -5766,9 +6644,9 @@
       <c r="S76" s="4"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="8">
+      <c r="A77" s="77">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -5790,9 +6668,9 @@
       <c r="S77" s="4"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="8">
+      <c r="A78" s="77">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -5814,9 +6692,9 @@
       <c r="S78" s="4"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="8">
+      <c r="A79" s="77">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -5838,9 +6716,9 @@
       <c r="S79" s="4"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="8">
+      <c r="A80" s="77">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -5862,9 +6740,9 @@
       <c r="S80" s="4"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="8">
+      <c r="A81" s="77">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -5886,9 +6764,9 @@
       <c r="S81" s="4"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="8">
+      <c r="A82" s="77">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -5910,9 +6788,9 @@
       <c r="S82" s="4"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="8">
+      <c r="A83" s="77">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -5934,9 +6812,9 @@
       <c r="S83" s="4"/>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="8">
+      <c r="A84" s="77">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5958,9 +6836,9 @@
       <c r="S84" s="4"/>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="8">
+      <c r="A85" s="77">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5982,9 +6860,9 @@
       <c r="S85" s="4"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="8">
+      <c r="A86" s="77">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6006,9 +6884,9 @@
       <c r="S86" s="4"/>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="8">
+      <c r="A87" s="77">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6030,9 +6908,9 @@
       <c r="S87" s="4"/>
     </row>
     <row r="88" spans="1:19">
-      <c r="A88" s="8">
+      <c r="A88" s="77">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6054,9 +6932,9 @@
       <c r="S88" s="4"/>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="8">
+      <c r="A89" s="77">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6078,9 +6956,9 @@
       <c r="S89" s="4"/>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="8">
+      <c r="A90" s="77">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6102,9 +6980,9 @@
       <c r="S90" s="4"/>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="8">
+      <c r="A91" s="77">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6126,9 +7004,9 @@
       <c r="S91" s="4"/>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="8">
+      <c r="A92" s="77">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6150,9 +7028,9 @@
       <c r="S92" s="4"/>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="8">
+      <c r="A93" s="77">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6174,9 +7052,9 @@
       <c r="S93" s="4"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="8">
+      <c r="A94" s="77">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6198,9 +7076,9 @@
       <c r="S94" s="4"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="8">
+      <c r="A95" s="77">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6222,9 +7100,9 @@
       <c r="S95" s="4"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="8">
+      <c r="A96" s="77">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6246,9 +7124,9 @@
       <c r="S96" s="4"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="8">
+      <c r="A97" s="77">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6269,10 +7147,1249 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="77">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="2">
+        <f>A98+1</f>
+        <v>97</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="2">
+        <f t="shared" ref="A100:A122" si="2">A99+1</f>
+        <v>98</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="2">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="73"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="73"/>
+      <c r="J102" s="73"/>
+      <c r="K102" s="73"/>
+      <c r="L102" s="73"/>
+      <c r="M102" s="73"/>
+      <c r="N102" s="75"/>
+      <c r="O102" s="75"/>
+      <c r="P102" s="75"/>
+      <c r="Q102" s="73"/>
+      <c r="R102" s="73"/>
+      <c r="S102" s="73"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="2">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="73"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="73"/>
+      <c r="G103" s="73"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="73"/>
+      <c r="J103" s="73"/>
+      <c r="K103" s="73"/>
+      <c r="L103" s="73"/>
+      <c r="M103" s="73"/>
+      <c r="N103" s="75"/>
+      <c r="O103" s="75"/>
+      <c r="P103" s="75"/>
+      <c r="Q103" s="74"/>
+      <c r="R103" s="75"/>
+      <c r="S103" s="73"/>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="2">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="78"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73"/>
+      <c r="H104" s="73"/>
+      <c r="I104" s="73"/>
+      <c r="J104" s="73"/>
+      <c r="K104" s="73"/>
+      <c r="L104" s="73"/>
+      <c r="M104" s="73"/>
+      <c r="N104" s="75"/>
+      <c r="O104" s="73"/>
+      <c r="P104" s="75"/>
+      <c r="Q104" s="78"/>
+      <c r="R104" s="73"/>
+      <c r="S104" s="73"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="2">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B105" s="78"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="73"/>
+      <c r="H105" s="73"/>
+      <c r="I105" s="73"/>
+      <c r="J105" s="73"/>
+      <c r="K105" s="73"/>
+      <c r="L105" s="73"/>
+      <c r="M105" s="73"/>
+      <c r="N105" s="78"/>
+      <c r="O105" s="73"/>
+      <c r="P105" s="75"/>
+      <c r="Q105" s="78"/>
+      <c r="R105" s="75"/>
+      <c r="S105" s="73"/>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" s="2">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="78"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="73"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="73"/>
+      <c r="K106" s="73"/>
+      <c r="L106" s="73"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="73"/>
+      <c r="O106" s="73"/>
+      <c r="P106" s="75"/>
+      <c r="Q106" s="74"/>
+      <c r="R106" s="75"/>
+      <c r="S106" s="73"/>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="2">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B107" s="73"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
+      <c r="K107" s="73"/>
+      <c r="L107" s="73"/>
+      <c r="M107" s="73"/>
+      <c r="N107" s="73"/>
+      <c r="O107" s="73"/>
+      <c r="P107" s="75"/>
+      <c r="Q107" s="74"/>
+      <c r="R107" s="75"/>
+      <c r="S107" s="73"/>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="2">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="75"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="2">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="75"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="2">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="75"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="2">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="75"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="2">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="75"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="2">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="75"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="2">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="75"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="2">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="75"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="2">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="2">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="2">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="2">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="2">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" s="2">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" s="2">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="62"/>
+      <c r="G1" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickTop="1">
+      <c r="A3" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A4" s="81"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" ht="44.25" customHeight="1" thickTop="1">
+      <c r="A7" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A8" s="58"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="59"/>
+      <c r="B10" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="67"/>
+      <c r="F1" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="67"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="95"/>
+      <c r="E5" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+    </row>
+    <row r="8" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="96"/>
+      <c r="E8" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="A9" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="97"/>
+      <c r="E9" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="98"/>
+      <c r="E10" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="92"/>
+      <c r="C11" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="98"/>
+      <c r="E11" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="97"/>
+      <c r="E13" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="93"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" customHeight="1">
+      <c r="A15" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="89"/>
+      <c r="C15" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="89"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="93"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+    </row>
+    <row r="17" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A17" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="93"/>
+      <c r="E17" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="93"/>
+      <c r="E18" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="93"/>
+      <c r="E19" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A11:B14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>